--- a/Excel_bootcamp/Datasets start files/Example 1.xlsx
+++ b/Excel_bootcamp/Datasets start files/Example 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odaik\Desktop\Excel workshop\Modules\My bootcamp\Moduels\Module 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50422BBA-DB55-41B5-9240-DEA785450FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B3A7C-E987-A84B-B01C-A6962A21F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="629" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UW System" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Boot Camp" sheetId="3" r:id="rId3"/>
     <sheet name="Budget" sheetId="5" r:id="rId4"/>
     <sheet name="Other" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>UW</t>
   </si>
@@ -544,18 +545,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACF8653-2B8C-46C3-A057-EEF3E2AADB93}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +590,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -606,7 +607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -623,7 +624,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +641,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +658,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -674,7 +675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -704,110 +705,110 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <f ca="1">WORKDAY(B1,50)</f>
-        <v>45217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3">
         <f ca="1">WORKDAY(B1,-6)</f>
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -826,42 +827,42 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -880,17 +881,17 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -904,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -915,7 +916,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -926,7 +927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -952,13 +953,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD0E4BC-7FAC-4EDA-B874-0D17B8BEEDA2}">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -975,7 +976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -983,7 +984,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -991,7 +992,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1046,22 +1047,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1069,4 +1070,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7238763E-F13E-D544-A5DA-B9CD4C94B240}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;Chey
+</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>